--- a/заказы/статистика филиалы/2024/01,24/04,01,24 ЗПФ/дв 04,01,24 млрсч зпф.xlsx
+++ b/заказы/статистика филиалы/2024/01,24/04,01,24 ЗПФ/дв 04,01,24 млрсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\04,01,24 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\01,24\04,01,24 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A82BD66-6667-45CB-AC53-3BA735586464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF60307F-3901-4A7D-9E71-71DF9E4F5093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,6 +302,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -3053,8 +3055,8 @@
   <dimension ref="A1:Y56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB41" sqref="AB41"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -4185,7 +4187,7 @@
         <v>3.7</v>
       </c>
       <c r="X19" s="28">
-        <f t="shared" ref="X7:X56" si="9">M19/W19</f>
+        <f t="shared" ref="X19:X56" si="9">M19/W19</f>
         <v>0</v>
       </c>
       <c r="Y19" s="2">
@@ -5361,7 +5363,7 @@
         <v>19.666666666666668</v>
       </c>
       <c r="M36" s="25">
-        <f t="shared" ref="M32:M36" si="11">13*L36-J36-F36</f>
+        <f t="shared" ref="M36" si="11">13*L36-J36-F36</f>
         <v>17.666666666666686</v>
       </c>
       <c r="N36" s="25"/>
@@ -6481,7 +6483,7 @@
         <v>142.33333333333334</v>
       </c>
       <c r="M52" s="25">
-        <f t="shared" ref="M52:M55" si="14">13*L52-J52-F52</f>
+        <f t="shared" ref="M52:M53" si="14">13*L52-J52-F52</f>
         <v>211.33333333333348</v>
       </c>
       <c r="N52" s="25"/>
